--- a/Results/Categorization/lda2vec-partial-ner-fasttext.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-fasttext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1805">
   <si>
     <t>id</t>
   </si>
@@ -4039,49 +4039,49 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
@@ -4192,7 +4192,7 @@
     <t>PRICES|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+    <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
@@ -4210,9 +4210,6 @@
     <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|PRICES</t>
   </si>
   <si>
@@ -4252,7 +4249,7 @@
     <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE|FOOD</t>
@@ -4270,7 +4267,7 @@
     <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|PRICES</t>
@@ -4279,138 +4276,141 @@
     <t>FOOD|FOOD|PRICES</t>
   </si>
   <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>PRICES|SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES||AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -4420,10 +4420,7 @@
     <t>|</t>
   </si>
   <si>
-    <t>|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD|SERVICE</t>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
@@ -4432,9 +4429,6 @@
     <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
@@ -4459,18 +4453,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4534,7 +4522,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4612,6 +4600,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4762,13 +4753,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4777,7 +4765,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4807,7 +4795,7 @@
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
+    <t>atmosphere|wait</t>
   </si>
   <si>
     <t>dish|reasonable|price</t>
@@ -4822,9 +4810,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4843,7 +4828,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4867,7 +4852,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4912,7 +4897,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4945,7 +4930,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4966,7 +4951,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -4987,9 +4972,6 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing</t>
-  </si>
-  <si>
     <t>seats|wall|benches</t>
   </si>
   <si>
@@ -5029,15 +5011,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5047,7 +5026,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5086,13 +5065,10 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
@@ -5164,16 +5140,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5188,7 +5161,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5197,7 +5170,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5233,7 +5206,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5284,9 +5257,6 @@
     <t>service|dish|price</t>
   </si>
   <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
     <t>dinner|wine</t>
   </si>
   <si>
@@ -5299,7 +5269,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -5323,9 +5293,6 @@
     <t>place|would|feel|restaurant|price</t>
   </si>
   <si>
-    <t>place|food|thing</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -5338,7 +5305,7 @@
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>good|reasonable|thing|great|price</t>
+    <t>good|reasonable|great|price</t>
   </si>
   <si>
     <t>service|rude|well</t>
@@ -5868,10 +5835,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H2" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5897,7 +5864,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5920,10 +5887,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="H4" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5946,10 +5913,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H5" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5972,10 +5939,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H6" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5998,10 +5965,10 @@
         <v>1285</v>
       </c>
       <c r="G7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H7" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6024,10 +5991,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H8" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6050,10 +6017,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H9" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6076,10 +6043,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H10" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6102,10 +6069,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H11" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6125,13 +6092,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1483</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6151,13 +6118,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H13" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6177,13 +6144,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H14" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6203,13 +6170,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H15" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6229,13 +6196,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H16" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6255,13 +6222,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H17" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6281,13 +6248,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H18" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6310,7 +6277,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6330,13 +6297,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G20" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H20" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6362,7 +6329,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6388,7 +6355,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6408,13 +6375,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G23" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H23" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6434,13 +6401,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G24" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H24" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6466,7 +6433,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6489,10 +6456,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H26" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6515,10 +6482,10 @@
         <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H27" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6538,10 +6505,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H28" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6561,13 +6528,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G29" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H29" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6587,13 +6554,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H30" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6613,13 +6580,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G31" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H31" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6642,10 +6609,10 @@
         <v>1339</v>
       </c>
       <c r="G32" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H32" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6665,13 +6632,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G33" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H33" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6691,13 +6658,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G34" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H34" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6720,10 +6687,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H35" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6743,13 +6710,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G36" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H36" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6772,10 +6739,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H37" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6795,13 +6762,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G38" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H38" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6824,10 +6791,10 @@
         <v>1354</v>
       </c>
       <c r="G39" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H39" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6850,10 +6817,10 @@
         <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H40" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6876,10 +6843,10 @@
         <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H41" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6902,10 +6869,10 @@
         <v>1357</v>
       </c>
       <c r="G42" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H42" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6928,10 +6895,10 @@
         <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H43" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6957,7 +6924,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6983,7 +6950,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7003,13 +6970,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G46" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H46" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7035,7 +7002,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7058,10 +7025,10 @@
         <v>1359</v>
       </c>
       <c r="G48" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H48" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7084,10 +7051,10 @@
         <v>1360</v>
       </c>
       <c r="G49" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H49" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7107,13 +7074,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G50" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H50" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7136,10 +7103,10 @@
         <v>1361</v>
       </c>
       <c r="G51" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H51" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7162,10 +7129,10 @@
         <v>1362</v>
       </c>
       <c r="G52" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H52" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7185,13 +7152,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G53" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H53" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7214,10 +7181,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H54" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7240,10 +7207,10 @@
         <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H55" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7266,10 +7233,10 @@
         <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H56" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7292,10 +7259,10 @@
         <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H57" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7318,10 +7285,10 @@
         <v>1359</v>
       </c>
       <c r="G58" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H58" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7344,10 +7311,10 @@
         <v>1366</v>
       </c>
       <c r="G59" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H59" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7370,10 +7337,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H60" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7399,7 +7366,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7422,10 +7389,10 @@
         <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H62" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7445,13 +7412,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G63" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H63" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7474,10 +7441,10 @@
         <v>1368</v>
       </c>
       <c r="G64" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H64" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7497,13 +7464,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H65" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7523,13 +7490,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G66" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H66" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7549,13 +7516,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G67" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H67" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7581,7 +7548,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7604,10 +7571,10 @@
         <v>1294</v>
       </c>
       <c r="G69" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H69" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7630,10 +7597,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H70" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7659,7 +7626,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7682,10 +7649,10 @@
         <v>1369</v>
       </c>
       <c r="G72" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H72" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7708,10 +7675,10 @@
         <v>1370</v>
       </c>
       <c r="G73" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H73" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7734,10 +7701,10 @@
         <v>1371</v>
       </c>
       <c r="G74" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H74" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7763,7 +7730,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7783,13 +7750,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1528</v>
       </c>
       <c r="H76" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7809,13 +7776,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G77" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H77" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7835,13 +7802,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G78" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="H78" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7864,10 +7831,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="H79" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7890,10 +7857,10 @@
         <v>1372</v>
       </c>
       <c r="G80" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="H80" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7916,10 +7883,10 @@
         <v>1373</v>
       </c>
       <c r="G81" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H81" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7942,10 +7909,10 @@
         <v>1374</v>
       </c>
       <c r="G82" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H82" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7971,7 +7938,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7997,7 +7964,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8020,10 +7987,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H85" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8046,10 +8013,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H86" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8072,10 +8039,10 @@
         <v>1339</v>
       </c>
       <c r="G87" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H87" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8098,10 +8065,10 @@
         <v>1375</v>
       </c>
       <c r="G88" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H88" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8124,10 +8091,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H89" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8153,7 +8120,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8176,10 +8143,10 @@
         <v>1376</v>
       </c>
       <c r="G91" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H91" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8202,10 +8169,10 @@
         <v>1360</v>
       </c>
       <c r="G92" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="H92" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8228,10 +8195,10 @@
         <v>1377</v>
       </c>
       <c r="G93" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="H93" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8254,10 +8221,10 @@
         <v>1378</v>
       </c>
       <c r="G94" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H94" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8277,13 +8244,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G95" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H95" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8306,10 +8273,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H96" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8332,10 +8299,10 @@
         <v>1285</v>
       </c>
       <c r="G97" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H97" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8358,10 +8325,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H98" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8384,10 +8351,10 @@
         <v>1379</v>
       </c>
       <c r="G99" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H99" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8410,10 +8377,10 @@
         <v>1380</v>
       </c>
       <c r="G100" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="H100" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8436,10 +8403,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H101" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8462,10 +8429,10 @@
         <v>1369</v>
       </c>
       <c r="G102" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H102" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8485,13 +8452,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G103" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H103" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8514,10 +8481,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H104" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8543,7 +8510,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8566,10 +8533,10 @@
         <v>1381</v>
       </c>
       <c r="G106" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H106" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8592,10 +8559,10 @@
         <v>1369</v>
       </c>
       <c r="G107" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H107" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8618,10 +8585,10 @@
         <v>1382</v>
       </c>
       <c r="G108" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H108" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8641,10 +8608,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H109" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8667,10 +8634,10 @@
         <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H110" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8693,10 +8660,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H111" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8719,10 +8686,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H112" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8748,7 +8715,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8774,7 +8741,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8797,10 +8764,10 @@
         <v>1383</v>
       </c>
       <c r="G115" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="H115" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8823,10 +8790,10 @@
         <v>1384</v>
       </c>
       <c r="G116" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="H116" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8849,10 +8816,10 @@
         <v>1371</v>
       </c>
       <c r="G117" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="H117" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8875,10 +8842,10 @@
         <v>1385</v>
       </c>
       <c r="G118" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H118" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8901,10 +8868,10 @@
         <v>1386</v>
       </c>
       <c r="G119" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H119" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8930,7 +8897,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8956,7 +8923,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8982,7 +8949,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9008,7 +8975,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9028,13 +8995,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G124" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="H124" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9057,10 +9024,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H125" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9086,7 +9053,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9109,10 +9076,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H127" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9135,10 +9102,10 @@
         <v>1375</v>
       </c>
       <c r="G128" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H128" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9161,10 +9128,10 @@
         <v>1387</v>
       </c>
       <c r="G129" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H129" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9187,10 +9154,10 @@
         <v>1357</v>
       </c>
       <c r="G130" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H130" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9213,10 +9180,10 @@
         <v>1388</v>
       </c>
       <c r="G131" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H131" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9239,10 +9206,10 @@
         <v>1385</v>
       </c>
       <c r="G132" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H132" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9265,10 +9232,10 @@
         <v>1389</v>
       </c>
       <c r="G133" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H133" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9288,13 +9255,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G134" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="H134" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9320,7 +9287,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9340,13 +9307,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G136" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H136" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9369,10 +9336,10 @@
         <v>1357</v>
       </c>
       <c r="G137" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H137" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9392,13 +9359,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G138" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="H138" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9421,10 +9388,10 @@
         <v>1390</v>
       </c>
       <c r="G139" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H139" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9447,10 +9414,10 @@
         <v>1357</v>
       </c>
       <c r="G140" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="H140" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9476,7 +9443,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9499,10 +9466,10 @@
         <v>1391</v>
       </c>
       <c r="G142" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H142" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9525,10 +9492,10 @@
         <v>1375</v>
       </c>
       <c r="G143" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H143" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9551,10 +9518,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H144" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9580,7 +9547,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9600,13 +9567,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G146" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="H146" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9632,7 +9599,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9655,10 +9622,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H148" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9677,14 +9644,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1582</v>
-      </c>
       <c r="H149" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9707,10 +9668,10 @@
         <v>1392</v>
       </c>
       <c r="G150" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H150" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9736,7 +9697,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9756,13 +9717,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="H152" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9785,10 +9746,10 @@
         <v>1393</v>
       </c>
       <c r="G153" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="H153" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9811,10 +9772,10 @@
         <v>1394</v>
       </c>
       <c r="G154" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="H154" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9834,13 +9795,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H155" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9860,13 +9821,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G156" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H156" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9889,10 +9850,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H157" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9915,10 +9876,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H158" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9938,13 +9899,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G159" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H159" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9967,10 +9928,10 @@
         <v>1373</v>
       </c>
       <c r="G160" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H160" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9996,7 +9957,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10016,13 +9977,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G162" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H162" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10048,7 +10009,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10071,10 +10032,10 @@
         <v>1395</v>
       </c>
       <c r="G164" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H164" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10097,10 +10058,10 @@
         <v>1396</v>
       </c>
       <c r="G165" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H165" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10120,13 +10081,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G166" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H166" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10149,10 +10110,10 @@
         <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H167" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10175,10 +10136,10 @@
         <v>1397</v>
       </c>
       <c r="G168" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H168" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10198,13 +10159,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="G169" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H169" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10224,13 +10185,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G170" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H170" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10250,13 +10211,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G171" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H171" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10279,10 +10240,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H172" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10305,10 +10266,10 @@
         <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H173" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10331,10 +10292,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="H174" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10354,13 +10315,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G175" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="H175" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10383,10 +10344,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H176" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10406,13 +10367,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G177" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="H177" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10432,13 +10393,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G178" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="H178" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10458,13 +10419,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G179" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="H179" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10484,13 +10445,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G180" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="H180" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10510,13 +10471,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G181" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="H181" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10542,7 +10503,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10565,10 +10526,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H183" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10588,13 +10549,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="H184" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10614,13 +10575,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G185" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H185" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10640,13 +10601,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G186" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H186" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10669,10 +10630,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H187" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10698,7 +10659,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10718,13 +10679,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G189" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="H189" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10750,7 +10711,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10770,13 +10731,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G191" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="H191" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10796,13 +10757,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G192" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="H192" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10822,13 +10783,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G193" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="H193" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10851,10 +10812,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H194" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10880,7 +10841,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10900,13 +10861,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="H196" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10932,7 +10893,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10955,10 +10916,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H198" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10978,13 +10939,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1395</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="H199" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11007,10 +10968,10 @@
         <v>1360</v>
       </c>
       <c r="G200" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="H200" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11030,13 +10991,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G201" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="H201" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11056,13 +11017,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G202" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="H202" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11082,13 +11043,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G203" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="H203" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11108,13 +11069,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G204" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="H204" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11137,10 +11098,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H205" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11160,13 +11121,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G206" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H206" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11192,7 +11153,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11212,13 +11173,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G208" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="H208" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11244,7 +11205,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11267,10 +11228,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="H210" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11290,13 +11251,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G211" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="H211" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11319,10 +11280,10 @@
         <v>1375</v>
       </c>
       <c r="G212" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="H212" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11345,10 +11306,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H213" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11368,13 +11329,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G214" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="H214" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11397,10 +11358,10 @@
         <v>1357</v>
       </c>
       <c r="G215" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="H215" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11426,7 +11387,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11446,13 +11407,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="H217" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11472,13 +11433,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G218" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="H218" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11501,10 +11462,10 @@
         <v>1285</v>
       </c>
       <c r="G219" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H219" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11524,13 +11485,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G220" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="H220" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11556,7 +11517,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11576,13 +11537,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G222" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="H222" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11602,13 +11563,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G223" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="H223" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11628,13 +11589,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G224" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="H224" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11660,7 +11621,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11686,7 +11647,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11712,7 +11673,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11732,13 +11693,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G228" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="H228" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11758,13 +11719,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G229" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="H229" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11787,10 +11748,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H230" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11816,7 +11777,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11839,10 +11800,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="H232" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11865,10 +11826,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H233" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11891,10 +11852,10 @@
         <v>1396</v>
       </c>
       <c r="G234" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="H234" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11914,13 +11875,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G235" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="H235" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11940,13 +11901,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G236" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="H236" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11969,10 +11930,10 @@
         <v>1388</v>
       </c>
       <c r="G237" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H237" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11992,13 +11953,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G238" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="H238" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12018,13 +11979,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G239" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H239" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12044,13 +12005,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G240" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="H240" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12073,10 +12034,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H241" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12099,10 +12060,10 @@
         <v>1375</v>
       </c>
       <c r="G242" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H242" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12125,10 +12086,10 @@
         <v>1370</v>
       </c>
       <c r="G243" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="H243" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12151,10 +12112,10 @@
         <v>1388</v>
       </c>
       <c r="G244" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="H244" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12177,10 +12138,10 @@
         <v>1370</v>
       </c>
       <c r="G245" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="H245" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12206,7 +12167,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12226,13 +12187,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1421</v>
+        <v>1347</v>
       </c>
       <c r="G247" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="H247" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12258,7 +12219,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12278,13 +12239,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G249" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H249" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12304,13 +12265,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G250" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="H250" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12330,13 +12291,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G251" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="H251" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12356,13 +12317,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G252" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="H252" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12382,13 +12343,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G253" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="H253" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12414,7 +12375,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12434,13 +12395,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G255" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="H255" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12463,10 +12424,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H256" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12486,13 +12447,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G257" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H257" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12512,13 +12473,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="G258" t="s">
-        <v>1657</v>
+        <v>1498</v>
       </c>
       <c r="H258" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12544,7 +12505,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12567,10 +12528,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H260" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12590,13 +12551,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G261" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H261" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12622,7 +12583,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12642,13 +12603,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G263" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H263" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12668,13 +12629,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G264" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="H264" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12694,13 +12655,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G265" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="H265" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12720,13 +12681,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G266" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H266" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12746,13 +12707,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G267" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="H267" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12772,13 +12733,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G268" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="H268" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12801,10 +12762,10 @@
         <v>1375</v>
       </c>
       <c r="G269" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="H269" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12830,7 +12791,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12850,13 +12811,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G271" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="H271" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12879,10 +12840,10 @@
         <v>1285</v>
       </c>
       <c r="G272" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H272" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12902,13 +12863,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G273" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="H273" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12928,13 +12889,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G274" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="H274" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12954,13 +12915,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G275" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="H275" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12980,13 +12941,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G276" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="H276" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13009,10 +12970,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H277" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13032,13 +12993,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1435</v>
+        <v>1347</v>
       </c>
       <c r="G278" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="H278" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13058,13 +13019,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G279" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="H279" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13084,13 +13045,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1357</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1673</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13113,7 +13074,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13133,13 +13094,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G282" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="H282" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13165,7 +13126,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13185,13 +13146,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G284" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="H284" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13214,10 +13175,10 @@
         <v>1370</v>
       </c>
       <c r="G285" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H285" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13237,13 +13198,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G286" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="H286" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13263,13 +13224,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G287" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="H287" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13292,10 +13253,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H288" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13318,10 +13279,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H289" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13341,13 +13302,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G290" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="H290" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13370,10 +13331,10 @@
         <v>1385</v>
       </c>
       <c r="G291" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="H291" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13393,13 +13354,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G292" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="H292" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13419,13 +13380,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G293" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="H293" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13445,13 +13406,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G294" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H294" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13477,7 +13438,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13500,10 +13461,10 @@
         <v>1375</v>
       </c>
       <c r="G296" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H296" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13526,10 +13487,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H297" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13549,13 +13510,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G298" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="H298" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13575,13 +13536,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G299" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="H299" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13604,10 +13565,10 @@
         <v>1388</v>
       </c>
       <c r="G300" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="H300" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13627,13 +13588,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G301" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="H301" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13653,13 +13614,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G302" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="H302" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13685,7 +13646,7 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13711,7 +13672,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13737,7 +13698,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13757,13 +13718,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G306" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="H306" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13789,7 +13750,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13812,10 +13773,10 @@
         <v>1379</v>
       </c>
       <c r="G308" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H308" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13841,7 +13802,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13867,7 +13828,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13893,7 +13854,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13913,13 +13874,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G312" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="H312" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13939,13 +13900,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1690</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13971,7 +13932,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13994,10 +13955,10 @@
         <v>1374</v>
       </c>
       <c r="G315" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="H315" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14017,13 +13978,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1420</v>
+        <v>1440</v>
       </c>
       <c r="G316" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="H316" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14046,10 +14007,10 @@
         <v>1375</v>
       </c>
       <c r="G317" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H317" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14069,13 +14030,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G318" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H318" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14094,8 +14055,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14115,13 +14082,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G320" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="H320" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14141,13 +14108,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G321" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="H321" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14167,13 +14134,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G322" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="H322" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14196,10 +14163,10 @@
         <v>1388</v>
       </c>
       <c r="G323" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="H323" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14219,13 +14186,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G324" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H324" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14251,7 +14218,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14277,7 +14244,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14297,13 +14264,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G327" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="H327" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14323,13 +14290,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G328" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="H328" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14349,13 +14316,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G329" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="H329" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14378,10 +14345,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H330" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14401,13 +14368,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G331" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="H331" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14430,10 +14397,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H332" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14453,13 +14420,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G333" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="H333" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14482,10 +14449,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H334" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14505,13 +14472,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G335" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="H335" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14531,13 +14498,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G336" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="H336" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14557,13 +14524,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1421</v>
+        <v>1444</v>
       </c>
       <c r="G337" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H337" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14583,13 +14550,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G338" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="H338" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14609,13 +14576,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1421</v>
+        <v>1444</v>
       </c>
       <c r="G339" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H339" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14638,10 +14605,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="H340" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14661,13 +14628,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G341" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="H341" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14687,13 +14654,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G342" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H342" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14713,13 +14680,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G343" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="H343" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14739,13 +14706,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G344" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="H344" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14765,13 +14732,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G345" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="H345" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14791,13 +14758,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G346" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="H346" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14820,10 +14787,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="H347" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14849,7 +14816,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14875,7 +14842,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14895,13 +14862,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G350" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H350" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14921,13 +14888,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G351" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="H351" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14947,13 +14914,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G352" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="H352" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14979,7 +14946,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14999,13 +14966,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1388</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1716</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15028,10 +14995,10 @@
         <v>1285</v>
       </c>
       <c r="G355" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H355" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15057,7 +15024,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15077,13 +15044,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G357" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="H357" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15103,13 +15070,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G358" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H358" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15132,10 +15099,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H359" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15161,7 +15128,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15181,13 +15148,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G361" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="H361" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15210,10 +15177,10 @@
         <v>1276</v>
       </c>
       <c r="G362" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H362" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15233,13 +15200,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G363" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="H363" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15259,13 +15226,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G364" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="H364" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15285,13 +15252,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G365" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="H365" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15311,13 +15278,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G366" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="H366" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15340,10 +15307,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H367" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15363,13 +15330,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G368" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="H368" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15392,10 +15359,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H369" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15414,14 +15381,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1582</v>
-      </c>
       <c r="H370" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15441,13 +15402,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G371" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="H371" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15467,13 +15428,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G372" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="H372" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15493,13 +15454,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G373" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="H373" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15519,7 +15480,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15545,7 +15506,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15565,13 +15526,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G376" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="H376" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15591,13 +15552,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G377" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="H377" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15617,13 +15578,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1342</v>
+        <v>1378</v>
       </c>
       <c r="G378" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="H378" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15643,13 +15604,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G379" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="H379" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15669,13 +15630,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G380" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="H380" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15698,10 +15659,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H381" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15721,13 +15682,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G382" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="H382" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15747,13 +15708,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G383" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="H383" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15773,13 +15734,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G384" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="H384" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15799,13 +15760,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G385" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H385" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15825,13 +15786,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G386" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="H386" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15857,7 +15818,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15877,13 +15838,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G388" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H388" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15903,13 +15864,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G389" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H389" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15932,10 +15893,10 @@
         <v>1379</v>
       </c>
       <c r="G390" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H390" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15955,13 +15916,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G391" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="H391" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15981,13 +15942,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G392" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="H392" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16007,13 +15968,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G393" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="H393" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16036,10 +15997,10 @@
         <v>1396</v>
       </c>
       <c r="G394" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="H394" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16062,10 +16023,10 @@
         <v>1373</v>
       </c>
       <c r="G395" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="H395" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16085,13 +16046,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1345</v>
+        <v>1454</v>
       </c>
       <c r="G396" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="H396" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16111,13 +16072,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G397" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="H397" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16143,7 +16104,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16163,13 +16124,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G399" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="H399" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16189,13 +16150,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1439</v>
+        <v>1464</v>
       </c>
       <c r="G400" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="H400" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16221,7 +16182,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16247,7 +16208,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16267,13 +16228,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G403" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="H403" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16296,10 +16257,10 @@
         <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="H404" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16322,10 +16283,10 @@
         <v>1360</v>
       </c>
       <c r="G405" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="H405" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16351,7 +16312,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16374,10 +16335,10 @@
         <v>1465</v>
       </c>
       <c r="G407" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="H407" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16400,10 +16361,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H408" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16429,7 +16390,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16455,7 +16416,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16478,10 +16439,10 @@
         <v>1466</v>
       </c>
       <c r="G411" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="H411" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16504,10 +16465,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H412" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16527,13 +16488,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G413" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H413" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16553,13 +16514,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G414" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="H414" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16582,10 +16543,10 @@
         <v>1340</v>
       </c>
       <c r="G415" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="H415" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16608,10 +16569,10 @@
         <v>1467</v>
       </c>
       <c r="G416" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="H416" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16634,10 +16595,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H417" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16660,10 +16621,10 @@
         <v>1371</v>
       </c>
       <c r="G418" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="H418" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16683,13 +16644,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G419" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H419" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16712,10 +16673,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="H420" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16735,13 +16696,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G421" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="H421" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16761,13 +16722,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G422" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="H422" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16793,7 +16754,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16819,7 +16780,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16839,13 +16800,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G425" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="H425" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16865,13 +16826,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G426" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="H426" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16890,14 +16851,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1468</v>
-      </c>
       <c r="G427" t="s">
-        <v>1756</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16920,10 +16878,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H428" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16946,10 +16904,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H429" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16972,10 +16930,10 @@
         <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="H430" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16995,13 +16953,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G431" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="H431" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17027,7 +16985,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17047,13 +17005,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G433" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="H433" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17076,10 +17034,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="H434" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17099,13 +17057,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G435" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="H435" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17131,7 +17089,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17154,10 +17112,10 @@
         <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H437" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17183,7 +17141,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17206,10 +17164,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="H439" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17232,10 +17190,10 @@
         <v>1375</v>
       </c>
       <c r="G440" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="H440" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17255,13 +17213,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G441" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="H441" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17281,13 +17239,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G442" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="H442" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17307,13 +17265,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G443" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H443" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17336,10 +17294,10 @@
         <v>1357</v>
       </c>
       <c r="G444" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="H444" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17359,13 +17317,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G445" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="H445" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17385,13 +17343,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="G446" t="s">
-        <v>1769</v>
+        <v>1530</v>
       </c>
       <c r="H446" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17414,10 +17372,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="H447" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17440,10 +17398,10 @@
         <v>1373</v>
       </c>
       <c r="G448" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="H448" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17466,10 +17424,10 @@
         <v>1339</v>
       </c>
       <c r="G449" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="H449" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17489,13 +17447,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G450" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H450" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17518,10 +17476,10 @@
         <v>1395</v>
       </c>
       <c r="G451" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H451" t="s">
         <v>1773</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17547,7 +17505,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17567,13 +17525,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1472</v>
+        <v>1349</v>
       </c>
       <c r="G453" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="H453" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17596,10 +17554,10 @@
         <v>1370</v>
       </c>
       <c r="G454" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="H454" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17619,13 +17577,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="G455" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="H455" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17645,13 +17603,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G456" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="H456" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17671,13 +17629,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="G457" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="H457" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17703,7 +17661,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17723,13 +17681,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G459" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="H459" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17755,7 +17713,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17778,10 +17736,10 @@
         <v>1396</v>
       </c>
       <c r="G461" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="H461" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17807,7 +17765,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17830,10 +17788,10 @@
         <v>1379</v>
       </c>
       <c r="G463" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H463" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
   </sheetData>
